--- a/Week-4-Results/nodes.xlsx
+++ b/Week-4-Results/nodes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/atang68_gatech_edu/Documents/Documents/mc-chess/Week-4-Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amyta\OneDrive - Georgia Institute of Technology\Documents\mc-chess\Week-4-Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{3D1F376F-FE86-4D15-BF20-0C1355D971E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA17A454-B371-4FE2-B450-2D1B4A4464FD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E80C8D-C19D-45B5-921A-CC47C102846D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1704" windowWidth="23040" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="13">
   <si>
     <t>Number</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>6R1/1p6/p1b1k1p1/7p/2rB1K1P/5P2/6P1/8 w - - 0 45</t>
+  </si>
+  <si>
+    <t>8/6k1/8/p1p2p2/P3pP1P/1P4PK/4B3/8 w - - 5 118</t>
+  </si>
+  <si>
+    <t>7R/1p5p/p1b1k1p1/2p5/7P/1PB2P2/P5P1/3r2K1 w - - 1 35</t>
   </si>
 </sst>
 </file>
@@ -674,10 +680,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>nodes!$B$2:$B$102</c:f>
+              <c:f>nodes!$B$2:$B$204</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="203"/>
                 <c:pt idx="0">
                   <c:v>440</c:v>
                 </c:pt>
@@ -977,6 +983,306 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,7 +1290,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D51E-4A74-87A0-5390B54799F4}"/>
+              <c16:uniqueId val="{00000000-90BA-4626-9986-79F2E5483F6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1016,10 +1322,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>nodes!$C$2:$C$102</c:f>
+              <c:f>nodes!$C$2:$C$204</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="203"/>
                 <c:pt idx="0">
                   <c:v>55</c:v>
                 </c:pt>
@@ -1319,6 +1625,306 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1326,7 +1932,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D51E-4A74-87A0-5390B54799F4}"/>
+              <c16:uniqueId val="{00000001-90BA-4626-9986-79F2E5483F6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1339,11 +1945,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="419951952"/>
-        <c:axId val="71562352"/>
+        <c:axId val="517769952"/>
+        <c:axId val="476053568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="419951952"/>
+        <c:axId val="517769952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,7 +1991,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71562352"/>
+        <c:crossAx val="476053568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1393,7 +1999,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71562352"/>
+        <c:axId val="476053568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1444,7 +2050,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419951952"/>
+        <c:crossAx val="517769952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2091,23 +2697,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E8A495-409E-4A05-937A-CD568EF86126}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A15F42FE-A5B8-867F-6FA0-4ECE320C6EC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2425,10 +3031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5362,6 +5968,2906 @@
         <v>10</v>
       </c>
     </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>295</v>
+      </c>
+      <c r="C104">
+        <v>219</v>
+      </c>
+      <c r="D104">
+        <v>9486</v>
+      </c>
+      <c r="E104">
+        <v>10000</v>
+      </c>
+      <c r="F104">
+        <v>15000</v>
+      </c>
+      <c r="G104">
+        <v>10000</v>
+      </c>
+      <c r="H104">
+        <v>20</v>
+      </c>
+      <c r="I104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="B105">
+        <v>326</v>
+      </c>
+      <c r="C105">
+        <v>183</v>
+      </c>
+      <c r="D105">
+        <v>9491</v>
+      </c>
+      <c r="E105">
+        <v>10000</v>
+      </c>
+      <c r="F105">
+        <v>15000</v>
+      </c>
+      <c r="G105">
+        <v>10000</v>
+      </c>
+      <c r="H105">
+        <v>20</v>
+      </c>
+      <c r="I105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>3</v>
+      </c>
+      <c r="B106">
+        <v>331</v>
+      </c>
+      <c r="C106">
+        <v>200</v>
+      </c>
+      <c r="D106">
+        <v>9469</v>
+      </c>
+      <c r="E106">
+        <v>10000</v>
+      </c>
+      <c r="F106">
+        <v>15000</v>
+      </c>
+      <c r="G106">
+        <v>10000</v>
+      </c>
+      <c r="H106">
+        <v>20</v>
+      </c>
+      <c r="I106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>4</v>
+      </c>
+      <c r="B107">
+        <v>335</v>
+      </c>
+      <c r="C107">
+        <v>206</v>
+      </c>
+      <c r="D107">
+        <v>9459</v>
+      </c>
+      <c r="E107">
+        <v>10000</v>
+      </c>
+      <c r="F107">
+        <v>15000</v>
+      </c>
+      <c r="G107">
+        <v>10000</v>
+      </c>
+      <c r="H107">
+        <v>20</v>
+      </c>
+      <c r="I107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>5</v>
+      </c>
+      <c r="B108">
+        <v>312</v>
+      </c>
+      <c r="C108">
+        <v>208</v>
+      </c>
+      <c r="D108">
+        <v>9480</v>
+      </c>
+      <c r="E108">
+        <v>10000</v>
+      </c>
+      <c r="F108">
+        <v>15000</v>
+      </c>
+      <c r="G108">
+        <v>10000</v>
+      </c>
+      <c r="H108">
+        <v>20</v>
+      </c>
+      <c r="I108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>6</v>
+      </c>
+      <c r="B109">
+        <v>284</v>
+      </c>
+      <c r="C109">
+        <v>210</v>
+      </c>
+      <c r="D109">
+        <v>9506</v>
+      </c>
+      <c r="E109">
+        <v>10000</v>
+      </c>
+      <c r="F109">
+        <v>15000</v>
+      </c>
+      <c r="G109">
+        <v>10000</v>
+      </c>
+      <c r="H109">
+        <v>20</v>
+      </c>
+      <c r="I109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>7</v>
+      </c>
+      <c r="B110">
+        <v>312</v>
+      </c>
+      <c r="C110">
+        <v>205</v>
+      </c>
+      <c r="D110">
+        <v>9483</v>
+      </c>
+      <c r="E110">
+        <v>10000</v>
+      </c>
+      <c r="F110">
+        <v>15000</v>
+      </c>
+      <c r="G110">
+        <v>10000</v>
+      </c>
+      <c r="H110">
+        <v>20</v>
+      </c>
+      <c r="I110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>8</v>
+      </c>
+      <c r="B111">
+        <v>327</v>
+      </c>
+      <c r="C111">
+        <v>182</v>
+      </c>
+      <c r="D111">
+        <v>9491</v>
+      </c>
+      <c r="E111">
+        <v>10000</v>
+      </c>
+      <c r="F111">
+        <v>15000</v>
+      </c>
+      <c r="G111">
+        <v>10000</v>
+      </c>
+      <c r="H111">
+        <v>20</v>
+      </c>
+      <c r="I111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>9</v>
+      </c>
+      <c r="B112">
+        <v>312</v>
+      </c>
+      <c r="C112">
+        <v>194</v>
+      </c>
+      <c r="D112">
+        <v>9494</v>
+      </c>
+      <c r="E112">
+        <v>10000</v>
+      </c>
+      <c r="F112">
+        <v>15000</v>
+      </c>
+      <c r="G112">
+        <v>10000</v>
+      </c>
+      <c r="H112">
+        <v>20</v>
+      </c>
+      <c r="I112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>10</v>
+      </c>
+      <c r="B113">
+        <v>276</v>
+      </c>
+      <c r="C113">
+        <v>210</v>
+      </c>
+      <c r="D113">
+        <v>9514</v>
+      </c>
+      <c r="E113">
+        <v>10000</v>
+      </c>
+      <c r="F113">
+        <v>15000</v>
+      </c>
+      <c r="G113">
+        <v>10000</v>
+      </c>
+      <c r="H113">
+        <v>20</v>
+      </c>
+      <c r="I113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>11</v>
+      </c>
+      <c r="B114">
+        <v>283</v>
+      </c>
+      <c r="C114">
+        <v>200</v>
+      </c>
+      <c r="D114">
+        <v>9517</v>
+      </c>
+      <c r="E114">
+        <v>10000</v>
+      </c>
+      <c r="F114">
+        <v>15000</v>
+      </c>
+      <c r="G114">
+        <v>10000</v>
+      </c>
+      <c r="H114">
+        <v>20</v>
+      </c>
+      <c r="I114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>12</v>
+      </c>
+      <c r="B115">
+        <v>311</v>
+      </c>
+      <c r="C115">
+        <v>183</v>
+      </c>
+      <c r="D115">
+        <v>9506</v>
+      </c>
+      <c r="E115">
+        <v>10000</v>
+      </c>
+      <c r="F115">
+        <v>15000</v>
+      </c>
+      <c r="G115">
+        <v>10000</v>
+      </c>
+      <c r="H115">
+        <v>20</v>
+      </c>
+      <c r="I115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>13</v>
+      </c>
+      <c r="B116">
+        <v>307</v>
+      </c>
+      <c r="C116">
+        <v>189</v>
+      </c>
+      <c r="D116">
+        <v>9504</v>
+      </c>
+      <c r="E116">
+        <v>10000</v>
+      </c>
+      <c r="F116">
+        <v>15000</v>
+      </c>
+      <c r="G116">
+        <v>10000</v>
+      </c>
+      <c r="H116">
+        <v>20</v>
+      </c>
+      <c r="I116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>14</v>
+      </c>
+      <c r="B117">
+        <v>313</v>
+      </c>
+      <c r="C117">
+        <v>194</v>
+      </c>
+      <c r="D117">
+        <v>9493</v>
+      </c>
+      <c r="E117">
+        <v>10000</v>
+      </c>
+      <c r="F117">
+        <v>15000</v>
+      </c>
+      <c r="G117">
+        <v>10000</v>
+      </c>
+      <c r="H117">
+        <v>20</v>
+      </c>
+      <c r="I117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>15</v>
+      </c>
+      <c r="B118">
+        <v>319</v>
+      </c>
+      <c r="C118">
+        <v>179</v>
+      </c>
+      <c r="D118">
+        <v>9502</v>
+      </c>
+      <c r="E118">
+        <v>10000</v>
+      </c>
+      <c r="F118">
+        <v>15000</v>
+      </c>
+      <c r="G118">
+        <v>10000</v>
+      </c>
+      <c r="H118">
+        <v>20</v>
+      </c>
+      <c r="I118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>16</v>
+      </c>
+      <c r="B119">
+        <v>332</v>
+      </c>
+      <c r="C119">
+        <v>188</v>
+      </c>
+      <c r="D119">
+        <v>9480</v>
+      </c>
+      <c r="E119">
+        <v>10000</v>
+      </c>
+      <c r="F119">
+        <v>15000</v>
+      </c>
+      <c r="G119">
+        <v>10000</v>
+      </c>
+      <c r="H119">
+        <v>20</v>
+      </c>
+      <c r="I119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>17</v>
+      </c>
+      <c r="B120">
+        <v>306</v>
+      </c>
+      <c r="C120">
+        <v>215</v>
+      </c>
+      <c r="D120">
+        <v>9479</v>
+      </c>
+      <c r="E120">
+        <v>10000</v>
+      </c>
+      <c r="F120">
+        <v>15000</v>
+      </c>
+      <c r="G120">
+        <v>10000</v>
+      </c>
+      <c r="H120">
+        <v>20</v>
+      </c>
+      <c r="I120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>18</v>
+      </c>
+      <c r="B121">
+        <v>322</v>
+      </c>
+      <c r="C121">
+        <v>183</v>
+      </c>
+      <c r="D121">
+        <v>9495</v>
+      </c>
+      <c r="E121">
+        <v>10000</v>
+      </c>
+      <c r="F121">
+        <v>15000</v>
+      </c>
+      <c r="G121">
+        <v>10000</v>
+      </c>
+      <c r="H121">
+        <v>20</v>
+      </c>
+      <c r="I121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>19</v>
+      </c>
+      <c r="B122">
+        <v>309</v>
+      </c>
+      <c r="C122">
+        <v>193</v>
+      </c>
+      <c r="D122">
+        <v>9498</v>
+      </c>
+      <c r="E122">
+        <v>10000</v>
+      </c>
+      <c r="F122">
+        <v>15000</v>
+      </c>
+      <c r="G122">
+        <v>10000</v>
+      </c>
+      <c r="H122">
+        <v>20</v>
+      </c>
+      <c r="I122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>20</v>
+      </c>
+      <c r="B123">
+        <v>300</v>
+      </c>
+      <c r="C123">
+        <v>217</v>
+      </c>
+      <c r="D123">
+        <v>9483</v>
+      </c>
+      <c r="E123">
+        <v>10000</v>
+      </c>
+      <c r="F123">
+        <v>15000</v>
+      </c>
+      <c r="G123">
+        <v>10000</v>
+      </c>
+      <c r="H123">
+        <v>20</v>
+      </c>
+      <c r="I123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>21</v>
+      </c>
+      <c r="B124">
+        <v>312</v>
+      </c>
+      <c r="C124">
+        <v>188</v>
+      </c>
+      <c r="D124">
+        <v>9500</v>
+      </c>
+      <c r="E124">
+        <v>10000</v>
+      </c>
+      <c r="F124">
+        <v>15000</v>
+      </c>
+      <c r="G124">
+        <v>10000</v>
+      </c>
+      <c r="H124">
+        <v>20</v>
+      </c>
+      <c r="I124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>22</v>
+      </c>
+      <c r="B125">
+        <v>311</v>
+      </c>
+      <c r="C125">
+        <v>221</v>
+      </c>
+      <c r="D125">
+        <v>9468</v>
+      </c>
+      <c r="E125">
+        <v>10000</v>
+      </c>
+      <c r="F125">
+        <v>15000</v>
+      </c>
+      <c r="G125">
+        <v>10000</v>
+      </c>
+      <c r="H125">
+        <v>20</v>
+      </c>
+      <c r="I125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>23</v>
+      </c>
+      <c r="B126">
+        <v>316</v>
+      </c>
+      <c r="C126">
+        <v>205</v>
+      </c>
+      <c r="D126">
+        <v>9479</v>
+      </c>
+      <c r="E126">
+        <v>10000</v>
+      </c>
+      <c r="F126">
+        <v>15000</v>
+      </c>
+      <c r="G126">
+        <v>10000</v>
+      </c>
+      <c r="H126">
+        <v>20</v>
+      </c>
+      <c r="I126" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>24</v>
+      </c>
+      <c r="B127">
+        <v>325</v>
+      </c>
+      <c r="C127">
+        <v>191</v>
+      </c>
+      <c r="D127">
+        <v>9484</v>
+      </c>
+      <c r="E127">
+        <v>10000</v>
+      </c>
+      <c r="F127">
+        <v>15000</v>
+      </c>
+      <c r="G127">
+        <v>10000</v>
+      </c>
+      <c r="H127">
+        <v>20</v>
+      </c>
+      <c r="I127" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>25</v>
+      </c>
+      <c r="B128">
+        <v>320</v>
+      </c>
+      <c r="C128">
+        <v>213</v>
+      </c>
+      <c r="D128">
+        <v>9467</v>
+      </c>
+      <c r="E128">
+        <v>10000</v>
+      </c>
+      <c r="F128">
+        <v>15000</v>
+      </c>
+      <c r="G128">
+        <v>10000</v>
+      </c>
+      <c r="H128">
+        <v>20</v>
+      </c>
+      <c r="I128" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>26</v>
+      </c>
+      <c r="B129">
+        <v>314</v>
+      </c>
+      <c r="C129">
+        <v>193</v>
+      </c>
+      <c r="D129">
+        <v>9493</v>
+      </c>
+      <c r="E129">
+        <v>10000</v>
+      </c>
+      <c r="F129">
+        <v>15000</v>
+      </c>
+      <c r="G129">
+        <v>10000</v>
+      </c>
+      <c r="H129">
+        <v>20</v>
+      </c>
+      <c r="I129" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>27</v>
+      </c>
+      <c r="B130">
+        <v>316</v>
+      </c>
+      <c r="C130">
+        <v>211</v>
+      </c>
+      <c r="D130">
+        <v>9473</v>
+      </c>
+      <c r="E130">
+        <v>10000</v>
+      </c>
+      <c r="F130">
+        <v>15000</v>
+      </c>
+      <c r="G130">
+        <v>10000</v>
+      </c>
+      <c r="H130">
+        <v>20</v>
+      </c>
+      <c r="I130" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>28</v>
+      </c>
+      <c r="B131">
+        <v>316</v>
+      </c>
+      <c r="C131">
+        <v>202</v>
+      </c>
+      <c r="D131">
+        <v>9482</v>
+      </c>
+      <c r="E131">
+        <v>10000</v>
+      </c>
+      <c r="F131">
+        <v>15000</v>
+      </c>
+      <c r="G131">
+        <v>10000</v>
+      </c>
+      <c r="H131">
+        <v>20</v>
+      </c>
+      <c r="I131" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>29</v>
+      </c>
+      <c r="B132">
+        <v>358</v>
+      </c>
+      <c r="C132">
+        <v>219</v>
+      </c>
+      <c r="D132">
+        <v>9423</v>
+      </c>
+      <c r="E132">
+        <v>10000</v>
+      </c>
+      <c r="F132">
+        <v>15000</v>
+      </c>
+      <c r="G132">
+        <v>10000</v>
+      </c>
+      <c r="H132">
+        <v>20</v>
+      </c>
+      <c r="I132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>30</v>
+      </c>
+      <c r="B133">
+        <v>328</v>
+      </c>
+      <c r="C133">
+        <v>197</v>
+      </c>
+      <c r="D133">
+        <v>9475</v>
+      </c>
+      <c r="E133">
+        <v>10000</v>
+      </c>
+      <c r="F133">
+        <v>15000</v>
+      </c>
+      <c r="G133">
+        <v>10000</v>
+      </c>
+      <c r="H133">
+        <v>20</v>
+      </c>
+      <c r="I133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>31</v>
+      </c>
+      <c r="B134">
+        <v>316</v>
+      </c>
+      <c r="C134">
+        <v>205</v>
+      </c>
+      <c r="D134">
+        <v>9479</v>
+      </c>
+      <c r="E134">
+        <v>10000</v>
+      </c>
+      <c r="F134">
+        <v>15000</v>
+      </c>
+      <c r="G134">
+        <v>10000</v>
+      </c>
+      <c r="H134">
+        <v>20</v>
+      </c>
+      <c r="I134" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>32</v>
+      </c>
+      <c r="B135">
+        <v>304</v>
+      </c>
+      <c r="C135">
+        <v>195</v>
+      </c>
+      <c r="D135">
+        <v>9501</v>
+      </c>
+      <c r="E135">
+        <v>10000</v>
+      </c>
+      <c r="F135">
+        <v>15000</v>
+      </c>
+      <c r="G135">
+        <v>10000</v>
+      </c>
+      <c r="H135">
+        <v>20</v>
+      </c>
+      <c r="I135" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>33</v>
+      </c>
+      <c r="B136">
+        <v>347</v>
+      </c>
+      <c r="C136">
+        <v>213</v>
+      </c>
+      <c r="D136">
+        <v>9440</v>
+      </c>
+      <c r="E136">
+        <v>10000</v>
+      </c>
+      <c r="F136">
+        <v>15000</v>
+      </c>
+      <c r="G136">
+        <v>10000</v>
+      </c>
+      <c r="H136">
+        <v>20</v>
+      </c>
+      <c r="I136" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>34</v>
+      </c>
+      <c r="B137">
+        <v>313</v>
+      </c>
+      <c r="C137">
+        <v>241</v>
+      </c>
+      <c r="D137">
+        <v>9446</v>
+      </c>
+      <c r="E137">
+        <v>10000</v>
+      </c>
+      <c r="F137">
+        <v>15000</v>
+      </c>
+      <c r="G137">
+        <v>10000</v>
+      </c>
+      <c r="H137">
+        <v>20</v>
+      </c>
+      <c r="I137" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>35</v>
+      </c>
+      <c r="B138">
+        <v>300</v>
+      </c>
+      <c r="C138">
+        <v>199</v>
+      </c>
+      <c r="D138">
+        <v>9501</v>
+      </c>
+      <c r="E138">
+        <v>10000</v>
+      </c>
+      <c r="F138">
+        <v>15000</v>
+      </c>
+      <c r="G138">
+        <v>10000</v>
+      </c>
+      <c r="H138">
+        <v>20</v>
+      </c>
+      <c r="I138" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>36</v>
+      </c>
+      <c r="B139">
+        <v>360</v>
+      </c>
+      <c r="C139">
+        <v>223</v>
+      </c>
+      <c r="D139">
+        <v>9417</v>
+      </c>
+      <c r="E139">
+        <v>10000</v>
+      </c>
+      <c r="F139">
+        <v>15000</v>
+      </c>
+      <c r="G139">
+        <v>10000</v>
+      </c>
+      <c r="H139">
+        <v>20</v>
+      </c>
+      <c r="I139" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>37</v>
+      </c>
+      <c r="B140">
+        <v>306</v>
+      </c>
+      <c r="C140">
+        <v>197</v>
+      </c>
+      <c r="D140">
+        <v>9497</v>
+      </c>
+      <c r="E140">
+        <v>10000</v>
+      </c>
+      <c r="F140">
+        <v>15000</v>
+      </c>
+      <c r="G140">
+        <v>10000</v>
+      </c>
+      <c r="H140">
+        <v>20</v>
+      </c>
+      <c r="I140" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>38</v>
+      </c>
+      <c r="B141">
+        <v>340</v>
+      </c>
+      <c r="C141">
+        <v>209</v>
+      </c>
+      <c r="D141">
+        <v>9451</v>
+      </c>
+      <c r="E141">
+        <v>10000</v>
+      </c>
+      <c r="F141">
+        <v>15000</v>
+      </c>
+      <c r="G141">
+        <v>10000</v>
+      </c>
+      <c r="H141">
+        <v>20</v>
+      </c>
+      <c r="I141" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>39</v>
+      </c>
+      <c r="B142">
+        <v>323</v>
+      </c>
+      <c r="C142">
+        <v>219</v>
+      </c>
+      <c r="D142">
+        <v>9458</v>
+      </c>
+      <c r="E142">
+        <v>10000</v>
+      </c>
+      <c r="F142">
+        <v>15000</v>
+      </c>
+      <c r="G142">
+        <v>10000</v>
+      </c>
+      <c r="H142">
+        <v>20</v>
+      </c>
+      <c r="I142" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>40</v>
+      </c>
+      <c r="B143">
+        <v>310</v>
+      </c>
+      <c r="C143">
+        <v>203</v>
+      </c>
+      <c r="D143">
+        <v>9487</v>
+      </c>
+      <c r="E143">
+        <v>10000</v>
+      </c>
+      <c r="F143">
+        <v>15000</v>
+      </c>
+      <c r="G143">
+        <v>10000</v>
+      </c>
+      <c r="H143">
+        <v>20</v>
+      </c>
+      <c r="I143" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>41</v>
+      </c>
+      <c r="B144">
+        <v>304</v>
+      </c>
+      <c r="C144">
+        <v>213</v>
+      </c>
+      <c r="D144">
+        <v>9483</v>
+      </c>
+      <c r="E144">
+        <v>10000</v>
+      </c>
+      <c r="F144">
+        <v>15000</v>
+      </c>
+      <c r="G144">
+        <v>10000</v>
+      </c>
+      <c r="H144">
+        <v>20</v>
+      </c>
+      <c r="I144" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>42</v>
+      </c>
+      <c r="B145">
+        <v>305</v>
+      </c>
+      <c r="C145">
+        <v>180</v>
+      </c>
+      <c r="D145">
+        <v>9515</v>
+      </c>
+      <c r="E145">
+        <v>10000</v>
+      </c>
+      <c r="F145">
+        <v>15000</v>
+      </c>
+      <c r="G145">
+        <v>10000</v>
+      </c>
+      <c r="H145">
+        <v>20</v>
+      </c>
+      <c r="I145" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>43</v>
+      </c>
+      <c r="B146">
+        <v>348</v>
+      </c>
+      <c r="C146">
+        <v>226</v>
+      </c>
+      <c r="D146">
+        <v>9426</v>
+      </c>
+      <c r="E146">
+        <v>10000</v>
+      </c>
+      <c r="F146">
+        <v>15000</v>
+      </c>
+      <c r="G146">
+        <v>10000</v>
+      </c>
+      <c r="H146">
+        <v>20</v>
+      </c>
+      <c r="I146" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>44</v>
+      </c>
+      <c r="B147">
+        <v>323</v>
+      </c>
+      <c r="C147">
+        <v>204</v>
+      </c>
+      <c r="D147">
+        <v>9473</v>
+      </c>
+      <c r="E147">
+        <v>10000</v>
+      </c>
+      <c r="F147">
+        <v>15000</v>
+      </c>
+      <c r="G147">
+        <v>10000</v>
+      </c>
+      <c r="H147">
+        <v>20</v>
+      </c>
+      <c r="I147" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>45</v>
+      </c>
+      <c r="B148">
+        <v>305</v>
+      </c>
+      <c r="C148">
+        <v>186</v>
+      </c>
+      <c r="D148">
+        <v>9509</v>
+      </c>
+      <c r="E148">
+        <v>10000</v>
+      </c>
+      <c r="F148">
+        <v>15000</v>
+      </c>
+      <c r="G148">
+        <v>10000</v>
+      </c>
+      <c r="H148">
+        <v>20</v>
+      </c>
+      <c r="I148" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>46</v>
+      </c>
+      <c r="B149">
+        <v>350</v>
+      </c>
+      <c r="C149">
+        <v>181</v>
+      </c>
+      <c r="D149">
+        <v>9469</v>
+      </c>
+      <c r="E149">
+        <v>10000</v>
+      </c>
+      <c r="F149">
+        <v>15000</v>
+      </c>
+      <c r="G149">
+        <v>10000</v>
+      </c>
+      <c r="H149">
+        <v>20</v>
+      </c>
+      <c r="I149" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>47</v>
+      </c>
+      <c r="B150">
+        <v>321</v>
+      </c>
+      <c r="C150">
+        <v>208</v>
+      </c>
+      <c r="D150">
+        <v>9471</v>
+      </c>
+      <c r="E150">
+        <v>10000</v>
+      </c>
+      <c r="F150">
+        <v>15000</v>
+      </c>
+      <c r="G150">
+        <v>10000</v>
+      </c>
+      <c r="H150">
+        <v>20</v>
+      </c>
+      <c r="I150" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>48</v>
+      </c>
+      <c r="B151">
+        <v>315</v>
+      </c>
+      <c r="C151">
+        <v>221</v>
+      </c>
+      <c r="D151">
+        <v>9464</v>
+      </c>
+      <c r="E151">
+        <v>10000</v>
+      </c>
+      <c r="F151">
+        <v>15000</v>
+      </c>
+      <c r="G151">
+        <v>10000</v>
+      </c>
+      <c r="H151">
+        <v>20</v>
+      </c>
+      <c r="I151" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>49</v>
+      </c>
+      <c r="B152">
+        <v>324</v>
+      </c>
+      <c r="C152">
+        <v>196</v>
+      </c>
+      <c r="D152">
+        <v>9480</v>
+      </c>
+      <c r="E152">
+        <v>10000</v>
+      </c>
+      <c r="F152">
+        <v>15000</v>
+      </c>
+      <c r="G152">
+        <v>10000</v>
+      </c>
+      <c r="H152">
+        <v>20</v>
+      </c>
+      <c r="I152" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>50</v>
+      </c>
+      <c r="B153">
+        <v>328</v>
+      </c>
+      <c r="C153">
+        <v>203</v>
+      </c>
+      <c r="D153">
+        <v>9469</v>
+      </c>
+      <c r="E153">
+        <v>10000</v>
+      </c>
+      <c r="F153">
+        <v>15000</v>
+      </c>
+      <c r="G153">
+        <v>10000</v>
+      </c>
+      <c r="H153">
+        <v>20</v>
+      </c>
+      <c r="I153" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155">
+        <v>287</v>
+      </c>
+      <c r="C155">
+        <v>300</v>
+      </c>
+      <c r="D155">
+        <v>9413</v>
+      </c>
+      <c r="E155">
+        <v>10000</v>
+      </c>
+      <c r="F155">
+        <v>10000</v>
+      </c>
+      <c r="G155">
+        <v>15000</v>
+      </c>
+      <c r="H155">
+        <v>20</v>
+      </c>
+      <c r="I155" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>2</v>
+      </c>
+      <c r="B156">
+        <v>253</v>
+      </c>
+      <c r="C156">
+        <v>305</v>
+      </c>
+      <c r="D156">
+        <v>9442</v>
+      </c>
+      <c r="E156">
+        <v>10000</v>
+      </c>
+      <c r="F156">
+        <v>10000</v>
+      </c>
+      <c r="G156">
+        <v>15000</v>
+      </c>
+      <c r="H156">
+        <v>20</v>
+      </c>
+      <c r="I156" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>3</v>
+      </c>
+      <c r="B157">
+        <v>268</v>
+      </c>
+      <c r="C157">
+        <v>302</v>
+      </c>
+      <c r="D157">
+        <v>9430</v>
+      </c>
+      <c r="E157">
+        <v>10000</v>
+      </c>
+      <c r="F157">
+        <v>10000</v>
+      </c>
+      <c r="G157">
+        <v>15000</v>
+      </c>
+      <c r="H157">
+        <v>20</v>
+      </c>
+      <c r="I157" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>4</v>
+      </c>
+      <c r="B158">
+        <v>274</v>
+      </c>
+      <c r="C158">
+        <v>306</v>
+      </c>
+      <c r="D158">
+        <v>9420</v>
+      </c>
+      <c r="E158">
+        <v>10000</v>
+      </c>
+      <c r="F158">
+        <v>10000</v>
+      </c>
+      <c r="G158">
+        <v>15000</v>
+      </c>
+      <c r="H158">
+        <v>20</v>
+      </c>
+      <c r="I158" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>5</v>
+      </c>
+      <c r="B159">
+        <v>276</v>
+      </c>
+      <c r="C159">
+        <v>310</v>
+      </c>
+      <c r="D159">
+        <v>9414</v>
+      </c>
+      <c r="E159">
+        <v>10000</v>
+      </c>
+      <c r="F159">
+        <v>10000</v>
+      </c>
+      <c r="G159">
+        <v>15000</v>
+      </c>
+      <c r="H159">
+        <v>20</v>
+      </c>
+      <c r="I159" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>6</v>
+      </c>
+      <c r="B160">
+        <v>256</v>
+      </c>
+      <c r="C160">
+        <v>299</v>
+      </c>
+      <c r="D160">
+        <v>9445</v>
+      </c>
+      <c r="E160">
+        <v>10000</v>
+      </c>
+      <c r="F160">
+        <v>10000</v>
+      </c>
+      <c r="G160">
+        <v>15000</v>
+      </c>
+      <c r="H160">
+        <v>20</v>
+      </c>
+      <c r="I160" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161">
+        <v>274</v>
+      </c>
+      <c r="C161">
+        <v>300</v>
+      </c>
+      <c r="D161">
+        <v>9426</v>
+      </c>
+      <c r="E161">
+        <v>10000</v>
+      </c>
+      <c r="F161">
+        <v>10000</v>
+      </c>
+      <c r="G161">
+        <v>15000</v>
+      </c>
+      <c r="H161">
+        <v>20</v>
+      </c>
+      <c r="I161" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>8</v>
+      </c>
+      <c r="B162">
+        <v>259</v>
+      </c>
+      <c r="C162">
+        <v>304</v>
+      </c>
+      <c r="D162">
+        <v>9437</v>
+      </c>
+      <c r="E162">
+        <v>10000</v>
+      </c>
+      <c r="F162">
+        <v>10000</v>
+      </c>
+      <c r="G162">
+        <v>15000</v>
+      </c>
+      <c r="H162">
+        <v>20</v>
+      </c>
+      <c r="I162" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>9</v>
+      </c>
+      <c r="B163">
+        <v>278</v>
+      </c>
+      <c r="C163">
+        <v>316</v>
+      </c>
+      <c r="D163">
+        <v>9406</v>
+      </c>
+      <c r="E163">
+        <v>10000</v>
+      </c>
+      <c r="F163">
+        <v>10000</v>
+      </c>
+      <c r="G163">
+        <v>15000</v>
+      </c>
+      <c r="H163">
+        <v>20</v>
+      </c>
+      <c r="I163" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>10</v>
+      </c>
+      <c r="B164">
+        <v>306</v>
+      </c>
+      <c r="C164">
+        <v>299</v>
+      </c>
+      <c r="D164">
+        <v>9395</v>
+      </c>
+      <c r="E164">
+        <v>10000</v>
+      </c>
+      <c r="F164">
+        <v>10000</v>
+      </c>
+      <c r="G164">
+        <v>15000</v>
+      </c>
+      <c r="H164">
+        <v>20</v>
+      </c>
+      <c r="I164" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>11</v>
+      </c>
+      <c r="B165">
+        <v>251</v>
+      </c>
+      <c r="C165">
+        <v>314</v>
+      </c>
+      <c r="D165">
+        <v>9435</v>
+      </c>
+      <c r="E165">
+        <v>10000</v>
+      </c>
+      <c r="F165">
+        <v>10000</v>
+      </c>
+      <c r="G165">
+        <v>15000</v>
+      </c>
+      <c r="H165">
+        <v>20</v>
+      </c>
+      <c r="I165" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>12</v>
+      </c>
+      <c r="B166">
+        <v>253</v>
+      </c>
+      <c r="C166">
+        <v>328</v>
+      </c>
+      <c r="D166">
+        <v>9419</v>
+      </c>
+      <c r="E166">
+        <v>10000</v>
+      </c>
+      <c r="F166">
+        <v>10000</v>
+      </c>
+      <c r="G166">
+        <v>15000</v>
+      </c>
+      <c r="H166">
+        <v>20</v>
+      </c>
+      <c r="I166" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>13</v>
+      </c>
+      <c r="B167">
+        <v>258</v>
+      </c>
+      <c r="C167">
+        <v>277</v>
+      </c>
+      <c r="D167">
+        <v>9465</v>
+      </c>
+      <c r="E167">
+        <v>10000</v>
+      </c>
+      <c r="F167">
+        <v>10000</v>
+      </c>
+      <c r="G167">
+        <v>15000</v>
+      </c>
+      <c r="H167">
+        <v>20</v>
+      </c>
+      <c r="I167" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>14</v>
+      </c>
+      <c r="B168">
+        <v>281</v>
+      </c>
+      <c r="C168">
+        <v>294</v>
+      </c>
+      <c r="D168">
+        <v>9425</v>
+      </c>
+      <c r="E168">
+        <v>10000</v>
+      </c>
+      <c r="F168">
+        <v>10000</v>
+      </c>
+      <c r="G168">
+        <v>15000</v>
+      </c>
+      <c r="H168">
+        <v>20</v>
+      </c>
+      <c r="I168" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>15</v>
+      </c>
+      <c r="B169">
+        <v>271</v>
+      </c>
+      <c r="C169">
+        <v>273</v>
+      </c>
+      <c r="D169">
+        <v>9456</v>
+      </c>
+      <c r="E169">
+        <v>10000</v>
+      </c>
+      <c r="F169">
+        <v>10000</v>
+      </c>
+      <c r="G169">
+        <v>15000</v>
+      </c>
+      <c r="H169">
+        <v>20</v>
+      </c>
+      <c r="I169" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>16</v>
+      </c>
+      <c r="B170">
+        <v>251</v>
+      </c>
+      <c r="C170">
+        <v>314</v>
+      </c>
+      <c r="D170">
+        <v>9435</v>
+      </c>
+      <c r="E170">
+        <v>10000</v>
+      </c>
+      <c r="F170">
+        <v>10000</v>
+      </c>
+      <c r="G170">
+        <v>15000</v>
+      </c>
+      <c r="H170">
+        <v>20</v>
+      </c>
+      <c r="I170" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>17</v>
+      </c>
+      <c r="B171">
+        <v>263</v>
+      </c>
+      <c r="C171">
+        <v>273</v>
+      </c>
+      <c r="D171">
+        <v>9464</v>
+      </c>
+      <c r="E171">
+        <v>10000</v>
+      </c>
+      <c r="F171">
+        <v>10000</v>
+      </c>
+      <c r="G171">
+        <v>15000</v>
+      </c>
+      <c r="H171">
+        <v>20</v>
+      </c>
+      <c r="I171" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>18</v>
+      </c>
+      <c r="B172">
+        <v>262</v>
+      </c>
+      <c r="C172">
+        <v>298</v>
+      </c>
+      <c r="D172">
+        <v>9440</v>
+      </c>
+      <c r="E172">
+        <v>10000</v>
+      </c>
+      <c r="F172">
+        <v>10000</v>
+      </c>
+      <c r="G172">
+        <v>15000</v>
+      </c>
+      <c r="H172">
+        <v>20</v>
+      </c>
+      <c r="I172" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>19</v>
+      </c>
+      <c r="B173">
+        <v>253</v>
+      </c>
+      <c r="C173">
+        <v>277</v>
+      </c>
+      <c r="D173">
+        <v>9470</v>
+      </c>
+      <c r="E173">
+        <v>10000</v>
+      </c>
+      <c r="F173">
+        <v>10000</v>
+      </c>
+      <c r="G173">
+        <v>15000</v>
+      </c>
+      <c r="H173">
+        <v>20</v>
+      </c>
+      <c r="I173" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>20</v>
+      </c>
+      <c r="B174">
+        <v>251</v>
+      </c>
+      <c r="C174">
+        <v>305</v>
+      </c>
+      <c r="D174">
+        <v>9444</v>
+      </c>
+      <c r="E174">
+        <v>10000</v>
+      </c>
+      <c r="F174">
+        <v>10000</v>
+      </c>
+      <c r="G174">
+        <v>15000</v>
+      </c>
+      <c r="H174">
+        <v>20</v>
+      </c>
+      <c r="I174" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>21</v>
+      </c>
+      <c r="B175">
+        <v>272</v>
+      </c>
+      <c r="C175">
+        <v>282</v>
+      </c>
+      <c r="D175">
+        <v>9446</v>
+      </c>
+      <c r="E175">
+        <v>10000</v>
+      </c>
+      <c r="F175">
+        <v>10000</v>
+      </c>
+      <c r="G175">
+        <v>15000</v>
+      </c>
+      <c r="H175">
+        <v>20</v>
+      </c>
+      <c r="I175" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>22</v>
+      </c>
+      <c r="B176">
+        <v>264</v>
+      </c>
+      <c r="C176">
+        <v>307</v>
+      </c>
+      <c r="D176">
+        <v>9429</v>
+      </c>
+      <c r="E176">
+        <v>10000</v>
+      </c>
+      <c r="F176">
+        <v>10000</v>
+      </c>
+      <c r="G176">
+        <v>15000</v>
+      </c>
+      <c r="H176">
+        <v>20</v>
+      </c>
+      <c r="I176" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>23</v>
+      </c>
+      <c r="B177">
+        <v>280</v>
+      </c>
+      <c r="C177">
+        <v>322</v>
+      </c>
+      <c r="D177">
+        <v>9398</v>
+      </c>
+      <c r="E177">
+        <v>10000</v>
+      </c>
+      <c r="F177">
+        <v>10000</v>
+      </c>
+      <c r="G177">
+        <v>15000</v>
+      </c>
+      <c r="H177">
+        <v>20</v>
+      </c>
+      <c r="I177" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>24</v>
+      </c>
+      <c r="B178">
+        <v>260</v>
+      </c>
+      <c r="C178">
+        <v>308</v>
+      </c>
+      <c r="D178">
+        <v>9432</v>
+      </c>
+      <c r="E178">
+        <v>10000</v>
+      </c>
+      <c r="F178">
+        <v>10000</v>
+      </c>
+      <c r="G178">
+        <v>15000</v>
+      </c>
+      <c r="H178">
+        <v>20</v>
+      </c>
+      <c r="I178" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>25</v>
+      </c>
+      <c r="B179">
+        <v>243</v>
+      </c>
+      <c r="C179">
+        <v>305</v>
+      </c>
+      <c r="D179">
+        <v>9452</v>
+      </c>
+      <c r="E179">
+        <v>10000</v>
+      </c>
+      <c r="F179">
+        <v>10000</v>
+      </c>
+      <c r="G179">
+        <v>15000</v>
+      </c>
+      <c r="H179">
+        <v>20</v>
+      </c>
+      <c r="I179" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>26</v>
+      </c>
+      <c r="B180">
+        <v>278</v>
+      </c>
+      <c r="C180">
+        <v>310</v>
+      </c>
+      <c r="D180">
+        <v>9412</v>
+      </c>
+      <c r="E180">
+        <v>10000</v>
+      </c>
+      <c r="F180">
+        <v>10000</v>
+      </c>
+      <c r="G180">
+        <v>15000</v>
+      </c>
+      <c r="H180">
+        <v>20</v>
+      </c>
+      <c r="I180" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>27</v>
+      </c>
+      <c r="B181">
+        <v>260</v>
+      </c>
+      <c r="C181">
+        <v>286</v>
+      </c>
+      <c r="D181">
+        <v>9454</v>
+      </c>
+      <c r="E181">
+        <v>10000</v>
+      </c>
+      <c r="F181">
+        <v>10000</v>
+      </c>
+      <c r="G181">
+        <v>15000</v>
+      </c>
+      <c r="H181">
+        <v>20</v>
+      </c>
+      <c r="I181" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>28</v>
+      </c>
+      <c r="B182">
+        <v>287</v>
+      </c>
+      <c r="C182">
+        <v>337</v>
+      </c>
+      <c r="D182">
+        <v>9376</v>
+      </c>
+      <c r="E182">
+        <v>10000</v>
+      </c>
+      <c r="F182">
+        <v>10000</v>
+      </c>
+      <c r="G182">
+        <v>15000</v>
+      </c>
+      <c r="H182">
+        <v>20</v>
+      </c>
+      <c r="I182" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>29</v>
+      </c>
+      <c r="B183">
+        <v>290</v>
+      </c>
+      <c r="C183">
+        <v>314</v>
+      </c>
+      <c r="D183">
+        <v>9396</v>
+      </c>
+      <c r="E183">
+        <v>10000</v>
+      </c>
+      <c r="F183">
+        <v>10000</v>
+      </c>
+      <c r="G183">
+        <v>15000</v>
+      </c>
+      <c r="H183">
+        <v>20</v>
+      </c>
+      <c r="I183" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>30</v>
+      </c>
+      <c r="B184">
+        <v>275</v>
+      </c>
+      <c r="C184">
+        <v>315</v>
+      </c>
+      <c r="D184">
+        <v>9410</v>
+      </c>
+      <c r="E184">
+        <v>10000</v>
+      </c>
+      <c r="F184">
+        <v>10000</v>
+      </c>
+      <c r="G184">
+        <v>15000</v>
+      </c>
+      <c r="H184">
+        <v>20</v>
+      </c>
+      <c r="I184" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>31</v>
+      </c>
+      <c r="B185">
+        <v>274</v>
+      </c>
+      <c r="C185">
+        <v>308</v>
+      </c>
+      <c r="D185">
+        <v>9418</v>
+      </c>
+      <c r="E185">
+        <v>10000</v>
+      </c>
+      <c r="F185">
+        <v>10000</v>
+      </c>
+      <c r="G185">
+        <v>15000</v>
+      </c>
+      <c r="H185">
+        <v>20</v>
+      </c>
+      <c r="I185" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>32</v>
+      </c>
+      <c r="B186">
+        <v>278</v>
+      </c>
+      <c r="C186">
+        <v>299</v>
+      </c>
+      <c r="D186">
+        <v>9423</v>
+      </c>
+      <c r="E186">
+        <v>10000</v>
+      </c>
+      <c r="F186">
+        <v>10000</v>
+      </c>
+      <c r="G186">
+        <v>15000</v>
+      </c>
+      <c r="H186">
+        <v>20</v>
+      </c>
+      <c r="I186" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>33</v>
+      </c>
+      <c r="B187">
+        <v>251</v>
+      </c>
+      <c r="C187">
+        <v>316</v>
+      </c>
+      <c r="D187">
+        <v>9433</v>
+      </c>
+      <c r="E187">
+        <v>10000</v>
+      </c>
+      <c r="F187">
+        <v>10000</v>
+      </c>
+      <c r="G187">
+        <v>15000</v>
+      </c>
+      <c r="H187">
+        <v>20</v>
+      </c>
+      <c r="I187" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>34</v>
+      </c>
+      <c r="B188">
+        <v>269</v>
+      </c>
+      <c r="C188">
+        <v>304</v>
+      </c>
+      <c r="D188">
+        <v>9427</v>
+      </c>
+      <c r="E188">
+        <v>10000</v>
+      </c>
+      <c r="F188">
+        <v>10000</v>
+      </c>
+      <c r="G188">
+        <v>15000</v>
+      </c>
+      <c r="H188">
+        <v>20</v>
+      </c>
+      <c r="I188" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>35</v>
+      </c>
+      <c r="B189">
+        <v>273</v>
+      </c>
+      <c r="C189">
+        <v>310</v>
+      </c>
+      <c r="D189">
+        <v>9417</v>
+      </c>
+      <c r="E189">
+        <v>10000</v>
+      </c>
+      <c r="F189">
+        <v>10000</v>
+      </c>
+      <c r="G189">
+        <v>15000</v>
+      </c>
+      <c r="H189">
+        <v>20</v>
+      </c>
+      <c r="I189" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>36</v>
+      </c>
+      <c r="B190">
+        <v>265</v>
+      </c>
+      <c r="C190">
+        <v>323</v>
+      </c>
+      <c r="D190">
+        <v>9412</v>
+      </c>
+      <c r="E190">
+        <v>10000</v>
+      </c>
+      <c r="F190">
+        <v>10000</v>
+      </c>
+      <c r="G190">
+        <v>15000</v>
+      </c>
+      <c r="H190">
+        <v>20</v>
+      </c>
+      <c r="I190" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>37</v>
+      </c>
+      <c r="B191">
+        <v>276</v>
+      </c>
+      <c r="C191">
+        <v>325</v>
+      </c>
+      <c r="D191">
+        <v>9399</v>
+      </c>
+      <c r="E191">
+        <v>10000</v>
+      </c>
+      <c r="F191">
+        <v>10000</v>
+      </c>
+      <c r="G191">
+        <v>15000</v>
+      </c>
+      <c r="H191">
+        <v>20</v>
+      </c>
+      <c r="I191" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>38</v>
+      </c>
+      <c r="B192">
+        <v>289</v>
+      </c>
+      <c r="C192">
+        <v>306</v>
+      </c>
+      <c r="D192">
+        <v>9405</v>
+      </c>
+      <c r="E192">
+        <v>10000</v>
+      </c>
+      <c r="F192">
+        <v>10000</v>
+      </c>
+      <c r="G192">
+        <v>15000</v>
+      </c>
+      <c r="H192">
+        <v>20</v>
+      </c>
+      <c r="I192" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>39</v>
+      </c>
+      <c r="B193">
+        <v>238</v>
+      </c>
+      <c r="C193">
+        <v>309</v>
+      </c>
+      <c r="D193">
+        <v>9453</v>
+      </c>
+      <c r="E193">
+        <v>10000</v>
+      </c>
+      <c r="F193">
+        <v>10000</v>
+      </c>
+      <c r="G193">
+        <v>15000</v>
+      </c>
+      <c r="H193">
+        <v>20</v>
+      </c>
+      <c r="I193" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>40</v>
+      </c>
+      <c r="B194">
+        <v>244</v>
+      </c>
+      <c r="C194">
+        <v>314</v>
+      </c>
+      <c r="D194">
+        <v>9442</v>
+      </c>
+      <c r="E194">
+        <v>10000</v>
+      </c>
+      <c r="F194">
+        <v>10000</v>
+      </c>
+      <c r="G194">
+        <v>15000</v>
+      </c>
+      <c r="H194">
+        <v>20</v>
+      </c>
+      <c r="I194" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>41</v>
+      </c>
+      <c r="B195">
+        <v>249</v>
+      </c>
+      <c r="C195">
+        <v>316</v>
+      </c>
+      <c r="D195">
+        <v>9435</v>
+      </c>
+      <c r="E195">
+        <v>10000</v>
+      </c>
+      <c r="F195">
+        <v>10000</v>
+      </c>
+      <c r="G195">
+        <v>15000</v>
+      </c>
+      <c r="H195">
+        <v>20</v>
+      </c>
+      <c r="I195" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>42</v>
+      </c>
+      <c r="B196">
+        <v>261</v>
+      </c>
+      <c r="C196">
+        <v>329</v>
+      </c>
+      <c r="D196">
+        <v>9410</v>
+      </c>
+      <c r="E196">
+        <v>10000</v>
+      </c>
+      <c r="F196">
+        <v>10000</v>
+      </c>
+      <c r="G196">
+        <v>15000</v>
+      </c>
+      <c r="H196">
+        <v>20</v>
+      </c>
+      <c r="I196" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>43</v>
+      </c>
+      <c r="B197">
+        <v>272</v>
+      </c>
+      <c r="C197">
+        <v>309</v>
+      </c>
+      <c r="D197">
+        <v>9419</v>
+      </c>
+      <c r="E197">
+        <v>10000</v>
+      </c>
+      <c r="F197">
+        <v>10000</v>
+      </c>
+      <c r="G197">
+        <v>15000</v>
+      </c>
+      <c r="H197">
+        <v>20</v>
+      </c>
+      <c r="I197" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>44</v>
+      </c>
+      <c r="B198">
+        <v>287</v>
+      </c>
+      <c r="C198">
+        <v>309</v>
+      </c>
+      <c r="D198">
+        <v>9404</v>
+      </c>
+      <c r="E198">
+        <v>10000</v>
+      </c>
+      <c r="F198">
+        <v>10000</v>
+      </c>
+      <c r="G198">
+        <v>15000</v>
+      </c>
+      <c r="H198">
+        <v>20</v>
+      </c>
+      <c r="I198" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>45</v>
+      </c>
+      <c r="B199">
+        <v>280</v>
+      </c>
+      <c r="C199">
+        <v>286</v>
+      </c>
+      <c r="D199">
+        <v>9434</v>
+      </c>
+      <c r="E199">
+        <v>10000</v>
+      </c>
+      <c r="F199">
+        <v>10000</v>
+      </c>
+      <c r="G199">
+        <v>15000</v>
+      </c>
+      <c r="H199">
+        <v>20</v>
+      </c>
+      <c r="I199" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>46</v>
+      </c>
+      <c r="B200">
+        <v>264</v>
+      </c>
+      <c r="C200">
+        <v>316</v>
+      </c>
+      <c r="D200">
+        <v>9420</v>
+      </c>
+      <c r="E200">
+        <v>10000</v>
+      </c>
+      <c r="F200">
+        <v>10000</v>
+      </c>
+      <c r="G200">
+        <v>15000</v>
+      </c>
+      <c r="H200">
+        <v>20</v>
+      </c>
+      <c r="I200" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>47</v>
+      </c>
+      <c r="B201">
+        <v>275</v>
+      </c>
+      <c r="C201">
+        <v>303</v>
+      </c>
+      <c r="D201">
+        <v>9422</v>
+      </c>
+      <c r="E201">
+        <v>10000</v>
+      </c>
+      <c r="F201">
+        <v>10000</v>
+      </c>
+      <c r="G201">
+        <v>15000</v>
+      </c>
+      <c r="H201">
+        <v>20</v>
+      </c>
+      <c r="I201" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>48</v>
+      </c>
+      <c r="B202">
+        <v>244</v>
+      </c>
+      <c r="C202">
+        <v>324</v>
+      </c>
+      <c r="D202">
+        <v>9432</v>
+      </c>
+      <c r="E202">
+        <v>10000</v>
+      </c>
+      <c r="F202">
+        <v>10000</v>
+      </c>
+      <c r="G202">
+        <v>15000</v>
+      </c>
+      <c r="H202">
+        <v>20</v>
+      </c>
+      <c r="I202" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>49</v>
+      </c>
+      <c r="B203">
+        <v>257</v>
+      </c>
+      <c r="C203">
+        <v>324</v>
+      </c>
+      <c r="D203">
+        <v>9419</v>
+      </c>
+      <c r="E203">
+        <v>10000</v>
+      </c>
+      <c r="F203">
+        <v>10000</v>
+      </c>
+      <c r="G203">
+        <v>15000</v>
+      </c>
+      <c r="H203">
+        <v>20</v>
+      </c>
+      <c r="I203" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>50</v>
+      </c>
+      <c r="B204">
+        <v>264</v>
+      </c>
+      <c r="C204">
+        <v>277</v>
+      </c>
+      <c r="D204">
+        <v>9459</v>
+      </c>
+      <c r="E204">
+        <v>10000</v>
+      </c>
+      <c r="F204">
+        <v>10000</v>
+      </c>
+      <c r="G204">
+        <v>15000</v>
+      </c>
+      <c r="H204">
+        <v>20</v>
+      </c>
+      <c r="I204" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Week-4-Results/nodes.xlsx
+++ b/Week-4-Results/nodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amyta\OneDrive - Georgia Institute of Technology\Documents\mc-chess\Week-4-Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E80C8D-C19D-45B5-921A-CC47C102846D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFECD7A5-857C-4C81-9E80-F58BD0E11CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-84" yWindow="312" windowWidth="23040" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -3033,8 +3033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+    <sheetView tabSelected="1" topLeftCell="M7" zoomScale="135" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
